--- a/챕터11 컬렉션.xlsx
+++ b/챕터11 컬렉션.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitcamp\Desktop\공부\개인 공부\자바\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeongseok\Downloads\--main\--main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD28394-D061-4AA2-9E74-85E205E97055}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C7E551-78EE-4EA3-B694-94813D23A3A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="컬렉션" sheetId="2" r:id="rId1"/>
@@ -19,8 +19,13 @@
     <sheet name="Iterator" sheetId="4" r:id="rId4"/>
     <sheet name="정렬기준" sheetId="6" r:id="rId5"/>
     <sheet name="Arrays" sheetId="5" r:id="rId6"/>
-    <sheet name="Sheet8" sheetId="9" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">Arrays!$B$1:$C$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Iterator!$B$1:$B$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'메소드 정리'!$B$1:$F$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'스텍과 큐'!$B$1:$B$18</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3537,7 +3542,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="63">
+  <borders count="65">
     <border>
       <left/>
       <right/>
@@ -4361,12 +4366,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4523,6 +4554,117 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4532,6 +4674,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4550,9 +4704,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4571,138 +4722,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -4897,15 +4948,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>56159</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>83975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>589558</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>85279</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6600825</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>96555</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4928,8 +4979,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="7210425"/>
-          <a:ext cx="7933333" cy="3571429"/>
+          <a:off x="741959" y="6522875"/>
+          <a:ext cx="6544666" cy="2946280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4946,15 +4997,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>73025</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>619896</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>181395</xdr:rowOff>
+      <xdr:colOff>111896</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>102020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4977,8 +5028,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="581025" y="314325"/>
-          <a:ext cx="5525271" cy="3010320"/>
+          <a:off x="73025" y="25400"/>
+          <a:ext cx="5499871" cy="2965870"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4990,15 +5041,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:colOff>44450</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>372509</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>38874</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>594759</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>165874</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5021,8 +5072,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="504825" y="3505200"/>
-          <a:ext cx="7411484" cy="5544324"/>
+          <a:off x="44450" y="3375025"/>
+          <a:ext cx="7376559" cy="5458599"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5039,13 +5090,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>79375</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5734850</xdr:colOff>
+      <xdr:colOff>5814225</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>76968</xdr:rowOff>
     </xdr:to>
@@ -5070,8 +5121,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="1524000"/>
-          <a:ext cx="5734850" cy="5506218"/>
+          <a:off x="762000" y="1527175"/>
+          <a:ext cx="5734850" cy="5423668"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5083,15 +5134,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>56552</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>35841</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>153333</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>588906</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>162841</xdr:rowOff>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5114,8 +5165,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="7639050"/>
-          <a:ext cx="6687483" cy="6563641"/>
+          <a:off x="739177" y="7116091"/>
+          <a:ext cx="6374354" cy="6171284"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5392,8 +5443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1317E86C-1964-4B9D-8367-08ACA169F896}">
   <dimension ref="B1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5413,55 +5464,55 @@
       <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="90" t="s">
+      <c r="C1" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
     </row>
     <row r="5" spans="2:9" ht="17.25" thickBot="1"/>
     <row r="6" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="68"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="105"/>
     </row>
     <row r="7" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="69" t="s">
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="70"/>
-      <c r="I7" s="71"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="112"/>
     </row>
     <row r="8" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B8" s="92"/>
-      <c r="C8" s="75" t="s">
+      <c r="B8" s="94"/>
+      <c r="C8" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="76"/>
-      <c r="E8" s="75" t="s">
+      <c r="D8" s="116"/>
+      <c r="E8" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="77"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="74"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="115"/>
     </row>
     <row r="9" spans="2:9" ht="17.25" thickBot="1">
       <c r="B9" s="24" t="s">
@@ -5490,36 +5541,36 @@
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="80"/>
-      <c r="E10" s="69" t="s">
+      <c r="D10" s="120"/>
+      <c r="E10" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="71"/>
-      <c r="G10" s="120" t="s">
+      <c r="F10" s="112"/>
+      <c r="G10" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="121"/>
+      <c r="H10" s="123"/>
       <c r="I10" s="27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B11" s="92"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="100" t="s">
+      <c r="B11" s="94"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="99"/>
-      <c r="I11" s="101"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="107"/>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="28" t="s">
@@ -5537,10 +5588,10 @@
       <c r="F12" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="102" t="s">
+      <c r="G12" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="103"/>
+      <c r="H12" s="109"/>
       <c r="I12" s="30" t="s">
         <v>18</v>
       </c>
@@ -5561,96 +5612,96 @@
       <c r="F13" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="95" t="s">
+      <c r="G13" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="96"/>
+      <c r="H13" s="98"/>
       <c r="I13" s="33" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="14" spans="2:9" s="34" customFormat="1" ht="17.25" thickBot="1">
-      <c r="B14" s="104" t="s">
+      <c r="B14" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="106" t="s">
+      <c r="C14" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="108"/>
-      <c r="E14" s="122" t="s">
+      <c r="D14" s="70"/>
+      <c r="E14" s="83" t="s">
         <v>190</v>
       </c>
-      <c r="F14" s="123"/>
-      <c r="G14" s="111" t="s">
+      <c r="F14" s="84"/>
+      <c r="G14" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="112"/>
-      <c r="I14" s="108" t="s">
+      <c r="H14" s="75"/>
+      <c r="I14" s="70" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="15" spans="2:9" s="34" customFormat="1" ht="33.75" thickTop="1">
-      <c r="B15" s="105"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="109"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="71"/>
       <c r="E15" s="47" t="s">
         <v>71</v>
       </c>
       <c r="F15" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="G15" s="113"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="118"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="81"/>
     </row>
     <row r="16" spans="2:9" s="34" customFormat="1">
-      <c r="B16" s="105"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="109"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="71"/>
       <c r="E16" s="49" t="s">
         <v>38</v>
       </c>
       <c r="F16" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="G16" s="115" t="s">
+      <c r="G16" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="119"/>
+      <c r="H16" s="82"/>
       <c r="I16" s="48" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="17" spans="2:9" s="34" customFormat="1">
-      <c r="B17" s="105"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="109"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="71"/>
       <c r="E17" s="50" t="s">
         <v>171</v>
       </c>
       <c r="F17" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="G17" s="115" t="s">
+      <c r="G17" s="78" t="s">
         <v>172</v>
       </c>
-      <c r="H17" s="116"/>
-      <c r="I17" s="117"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="80"/>
     </row>
     <row r="18" spans="2:9" ht="17.25" thickBot="1">
       <c r="B18" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="88" t="s">
+      <c r="C18" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="89"/>
+      <c r="D18" s="91"/>
       <c r="E18" s="56" t="s">
         <v>89</v>
       </c>
       <c r="F18" s="57"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="110"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="73"/>
       <c r="I18" s="57"/>
     </row>
     <row r="19" spans="2:9">
@@ -5669,10 +5720,10 @@
       <c r="F19" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="93" t="s">
+      <c r="G19" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="H19" s="94"/>
+      <c r="H19" s="96"/>
       <c r="I19" s="22" t="s">
         <v>34</v>
       </c>
@@ -5689,8 +5740,8 @@
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="16"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="85"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="88"/>
       <c r="I20" s="16"/>
     </row>
     <row r="21" spans="2:9">
@@ -5705,8 +5756,8 @@
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="16"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="85"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="88"/>
       <c r="I21" s="16"/>
     </row>
     <row r="22" spans="2:9">
@@ -5721,8 +5772,8 @@
       </c>
       <c r="E22" s="15"/>
       <c r="F22" s="16"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="85"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="88"/>
       <c r="I22" s="16"/>
     </row>
     <row r="23" spans="2:9" ht="17.25" thickBot="1">
@@ -5737,12 +5788,12 @@
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="39"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="83"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="86"/>
       <c r="I23" s="39"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="86" t="s">
+      <c r="B24" s="89" t="s">
         <v>43</v>
       </c>
       <c r="C24" s="26" t="s">
@@ -5755,22 +5806,22 @@
       <c r="F24" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="G24" s="75" t="s">
+      <c r="G24" s="99" t="s">
         <v>88</v>
       </c>
-      <c r="H24" s="97"/>
+      <c r="H24" s="100"/>
       <c r="I24" s="27"/>
     </row>
     <row r="25" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B25" s="87"/>
+      <c r="B25" s="90"/>
       <c r="C25" s="19"/>
       <c r="D25" s="46" t="s">
         <v>41</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="46"/>
-      <c r="G25" s="98"/>
-      <c r="H25" s="99"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="102"/>
       <c r="I25" s="20"/>
     </row>
     <row r="26" spans="2:9">
@@ -5783,15 +5834,13 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G14:H15"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:I8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="B24:B25"/>
@@ -5808,17 +5857,20 @@
     <mergeCell ref="B6:I6"/>
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:I8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5826,8 +5878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79C3002-1A32-4A0E-B11F-BB5EB2E6D243}">
   <dimension ref="B2:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5910,7 +5962,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="92" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5918,8 +5971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C653A591-90CF-44D9-9B0A-AD5941F89E22}">
   <dimension ref="B1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5981,248 +6034,271 @@
     <row r="6" spans="2:6">
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="2:6" ht="19.5">
+    <row r="7" spans="2:6" ht="20.25" thickBot="1">
       <c r="C7" s="54" t="s">
         <v>102</v>
       </c>
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="124" t="s">
+      <c r="B8" s="110" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="125" t="s">
         <v>104</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="133" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="137" t="s">
         <v>142</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="126" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="124"/>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="127"/>
+      <c r="C9" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="134" t="s">
         <v>158</v>
       </c>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="124"/>
-      <c r="C10" s="9" t="s">
+      <c r="E9" s="138"/>
+      <c r="F9" s="64"/>
+    </row>
+    <row r="10" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B10" s="118"/>
+      <c r="C10" s="128" t="s">
         <v>116</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="135" t="s">
         <v>157</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="129"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="124" t="s">
+      <c r="B11" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="125" t="s">
         <v>106</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="133" t="s">
         <v>105</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="137" t="s">
         <v>161</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="126" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="124"/>
-      <c r="C12" s="9"/>
-      <c r="E12" s="9" t="s">
+      <c r="B12" s="127"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="134"/>
+      <c r="E12" s="138" t="s">
         <v>165</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="64" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="124"/>
-      <c r="C13" s="9"/>
-      <c r="E13" s="9" t="s">
+    <row r="13" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B13" s="118"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="139" t="s">
         <v>144</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="129" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="45" t="s">
+    <row r="14" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B14" s="130" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="131" t="s">
         <v>110</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="136" t="s">
         <v>112</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="140" t="s">
         <v>145</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="132" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="124" t="s">
+      <c r="B15" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="125" t="s">
         <v>111</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="133" t="s">
         <v>130</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="126" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="124"/>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="127"/>
+      <c r="C16" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="134" t="s">
         <v>159</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="64"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="124"/>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="127"/>
+      <c r="C17" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="134" t="s">
         <v>160</v>
       </c>
+      <c r="E17" s="141"/>
+      <c r="F17" s="64"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="124"/>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="127"/>
+      <c r="C18" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="134" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="124"/>
-      <c r="C19" s="9" t="s">
+      <c r="E18" s="141"/>
+      <c r="F18" s="64"/>
+    </row>
+    <row r="19" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B19" s="118"/>
+      <c r="C19" s="128" t="s">
         <v>150</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="135" t="s">
         <v>114</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="139" t="s">
         <v>150</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="129" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="124" t="s">
+      <c r="B20" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="125" t="s">
         <v>117</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="133" t="s">
         <v>118</v>
       </c>
+      <c r="E20" s="142"/>
+      <c r="F20" s="126"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="124"/>
-      <c r="C21" s="9" t="s">
+      <c r="B21" s="127"/>
+      <c r="C21" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="134" t="s">
         <v>120</v>
       </c>
+      <c r="E21" s="141"/>
+      <c r="F21" s="64"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="124"/>
-      <c r="C22" s="9" t="s">
+      <c r="B22" s="127"/>
+      <c r="C22" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="134" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="138" t="s">
         <v>148</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="64" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="124"/>
-      <c r="C23" s="9" t="s">
+      <c r="B23" s="127"/>
+      <c r="C23" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="134" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="124"/>
-      <c r="C24" s="9" t="s">
+      <c r="E23" s="141"/>
+      <c r="F23" s="64"/>
+    </row>
+    <row r="24" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B24" s="118"/>
+      <c r="C24" s="128" t="s">
         <v>125</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="135" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="45" t="s">
+      <c r="E24" s="143"/>
+      <c r="F24" s="129"/>
+    </row>
+    <row r="25" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B25" s="130" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="131" t="s">
         <v>123</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="136" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="45" t="s">
+      <c r="E25" s="142"/>
+      <c r="F25" s="126"/>
+    </row>
+    <row r="26" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B26" s="130" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="131" t="s">
         <v>129</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="136" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="45" t="s">
+      <c r="E26" s="141"/>
+      <c r="F26" s="64"/>
+    </row>
+    <row r="27" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B27" s="130" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="131" t="s">
         <v>132</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="136" t="s">
         <v>133</v>
       </c>
+      <c r="E27" s="143"/>
+      <c r="F27" s="129"/>
     </row>
     <row r="30" spans="2:6" ht="17.25">
       <c r="C30" s="9" t="s">
@@ -6241,7 +6317,7 @@
       <c r="D32" s="59"/>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="125" t="s">
+      <c r="B33" s="124" t="s">
         <v>175</v>
       </c>
       <c r="C33" s="63" t="s">
@@ -6252,7 +6328,7 @@
       </c>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="125"/>
+      <c r="B34" s="124"/>
       <c r="C34" s="8" t="s">
         <v>180</v>
       </c>
@@ -6261,7 +6337,7 @@
       </c>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="125"/>
+      <c r="B35" s="124"/>
       <c r="C35" s="8" t="s">
         <v>181</v>
       </c>
@@ -6291,6 +6367,10 @@
     <hyperlink ref="D30" r:id="rId1" xr:uid="{D4EACADC-52F3-4E9A-BDBB-207E7E00803B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="73" orientation="landscape" r:id="rId2"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="4" max="35" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 
@@ -6298,8 +6378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153BDBB3-9E09-4F64-A683-90A3D8EEF45B}">
   <dimension ref="B1:B19"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6395,7 +6475,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6403,8 +6484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB31FB4-7E0A-4F57-92F2-FFAE6F9E283C}">
   <dimension ref="J7:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6428,7 +6509,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="81" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6436,8 +6518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F850116-FD72-48E4-846A-940F8960C3BD}">
   <dimension ref="B1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6478,21 +6560,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="94" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="34" min="1" max="2" man="1"/>
+  </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688F4D27-6012-4E98-BA65-C701A8C48E49}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/챕터11 컬렉션.xlsx
+++ b/챕터11 컬렉션.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeongseok\Downloads\--main\--main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeongseok\Desktop\새 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C7E551-78EE-4EA3-B694-94813D23A3A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E6B825-35B8-4374-969E-5115706A0155}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="컬렉션" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Arrays" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">Arrays!$B$1:$C$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">Arrays!$B$1:$C$71</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Iterator!$B$1:$B$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'메소드 정리'!$B$1:$F$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'스텍과 큐'!$B$1:$B$18</definedName>
@@ -4554,188 +4554,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4754,6 +4574,186 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -5090,13 +5090,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>79375</xdr:colOff>
+      <xdr:colOff>69850</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5814225</xdr:colOff>
+      <xdr:colOff>5804700</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>76968</xdr:rowOff>
     </xdr:to>
@@ -5121,7 +5121,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="762000" y="1527175"/>
+          <a:off x="752475" y="1527175"/>
           <a:ext cx="5734850" cy="5423668"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5134,22 +5134,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>56552</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>35841</xdr:rowOff>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>588906</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:colOff>16683</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>7422</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2">
+        <xdr:cNvPr id="6" name="그림 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A7E4677-F1E4-4735-A348-DEAA3CA5E9FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{337AEEA0-9E7E-4B9A-9C3F-2A0B8A6BFCF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5165,8 +5165,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="739177" y="7116091"/>
-          <a:ext cx="6374354" cy="6171284"/>
+          <a:off x="749300" y="7162800"/>
+          <a:ext cx="5792008" cy="7560747"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5443,7 +5443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1317E86C-1964-4B9D-8367-08ACA169F896}">
   <dimension ref="B1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="C1" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -5464,55 +5464,55 @@
       <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
     </row>
     <row r="5" spans="2:9" ht="17.25" thickBot="1"/>
     <row r="6" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="105"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="86"/>
     </row>
     <row r="7" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="103" t="s">
+      <c r="C7" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="110" t="s">
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="111"/>
-      <c r="I7" s="112"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="89"/>
     </row>
     <row r="8" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B8" s="94"/>
-      <c r="C8" s="99" t="s">
+      <c r="B8" s="112"/>
+      <c r="C8" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="116"/>
-      <c r="E8" s="99" t="s">
+      <c r="D8" s="94"/>
+      <c r="E8" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="117"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="115"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="92"/>
     </row>
     <row r="9" spans="2:9" ht="17.25" thickBot="1">
       <c r="B9" s="24" t="s">
@@ -5541,36 +5541,36 @@
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="111" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="110" t="s">
+      <c r="C10" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="110" t="s">
+      <c r="D10" s="98"/>
+      <c r="E10" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="112"/>
-      <c r="G10" s="122" t="s">
+      <c r="F10" s="89"/>
+      <c r="G10" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="123"/>
+      <c r="H10" s="101"/>
       <c r="I10" s="27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B11" s="94"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="106" t="s">
+      <c r="B11" s="112"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="102"/>
-      <c r="I11" s="107"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="121"/>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="28" t="s">
@@ -5588,10 +5588,10 @@
       <c r="F12" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="108" t="s">
+      <c r="G12" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="109"/>
+      <c r="H12" s="123"/>
       <c r="I12" s="30" t="s">
         <v>18</v>
       </c>
@@ -5612,96 +5612,96 @@
       <c r="F13" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="97" t="s">
+      <c r="G13" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="98"/>
+      <c r="H13" s="116"/>
       <c r="I13" s="33" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="14" spans="2:9" s="34" customFormat="1" ht="17.25" thickBot="1">
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="124" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="68" t="s">
+      <c r="C14" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="83" t="s">
+      <c r="D14" s="128"/>
+      <c r="E14" s="140" t="s">
         <v>190</v>
       </c>
-      <c r="F14" s="84"/>
-      <c r="G14" s="74" t="s">
+      <c r="F14" s="141"/>
+      <c r="G14" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="75"/>
-      <c r="I14" s="70" t="s">
+      <c r="H14" s="132"/>
+      <c r="I14" s="128" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="15" spans="2:9" s="34" customFormat="1" ht="33.75" thickTop="1">
-      <c r="B15" s="67"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="71"/>
+      <c r="B15" s="125"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="129"/>
       <c r="E15" s="47" t="s">
         <v>71</v>
       </c>
       <c r="F15" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="G15" s="76"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="81"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="138"/>
     </row>
     <row r="16" spans="2:9" s="34" customFormat="1">
-      <c r="B16" s="67"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="71"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="129"/>
       <c r="E16" s="49" t="s">
         <v>38</v>
       </c>
       <c r="F16" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="G16" s="78" t="s">
+      <c r="G16" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="82"/>
+      <c r="H16" s="139"/>
       <c r="I16" s="48" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="17" spans="2:9" s="34" customFormat="1">
-      <c r="B17" s="67"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="71"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="129"/>
       <c r="E17" s="50" t="s">
         <v>171</v>
       </c>
       <c r="F17" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="G17" s="78" t="s">
+      <c r="G17" s="135" t="s">
         <v>172</v>
       </c>
-      <c r="H17" s="79"/>
-      <c r="I17" s="80"/>
+      <c r="H17" s="136"/>
+      <c r="I17" s="137"/>
     </row>
     <row r="18" spans="2:9" ht="17.25" thickBot="1">
       <c r="B18" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="72" t="s">
+      <c r="C18" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="91"/>
+      <c r="D18" s="109"/>
       <c r="E18" s="56" t="s">
         <v>89</v>
       </c>
       <c r="F18" s="57"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="73"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="130"/>
       <c r="I18" s="57"/>
     </row>
     <row r="19" spans="2:9">
@@ -5720,10 +5720,10 @@
       <c r="F19" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="95" t="s">
+      <c r="G19" s="113" t="s">
         <v>94</v>
       </c>
-      <c r="H19" s="96"/>
+      <c r="H19" s="114"/>
       <c r="I19" s="22" t="s">
         <v>34</v>
       </c>
@@ -5740,8 +5740,8 @@
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="16"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="88"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="105"/>
       <c r="I20" s="16"/>
     </row>
     <row r="21" spans="2:9">
@@ -5756,8 +5756,8 @@
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="16"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="88"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="105"/>
       <c r="I21" s="16"/>
     </row>
     <row r="22" spans="2:9">
@@ -5772,8 +5772,8 @@
       </c>
       <c r="E22" s="15"/>
       <c r="F22" s="16"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="88"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="105"/>
       <c r="I22" s="16"/>
     </row>
     <row r="23" spans="2:9" ht="17.25" thickBot="1">
@@ -5788,12 +5788,12 @@
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="39"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="86"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="103"/>
       <c r="I23" s="39"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="89" t="s">
+      <c r="B24" s="106" t="s">
         <v>43</v>
       </c>
       <c r="C24" s="26" t="s">
@@ -5806,22 +5806,22 @@
       <c r="F24" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="G24" s="99" t="s">
+      <c r="G24" s="93" t="s">
         <v>88</v>
       </c>
-      <c r="H24" s="100"/>
+      <c r="H24" s="117"/>
       <c r="I24" s="27"/>
     </row>
     <row r="25" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B25" s="90"/>
+      <c r="B25" s="107"/>
       <c r="C25" s="19"/>
       <c r="D25" s="46" t="s">
         <v>41</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="46"/>
-      <c r="G25" s="101"/>
-      <c r="H25" s="102"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="119"/>
       <c r="I25" s="20"/>
     </row>
     <row r="26" spans="2:9">
@@ -5834,13 +5834,15 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:I8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E14:F14"/>
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="B24:B25"/>
@@ -5857,15 +5859,13 @@
     <mergeCell ref="B6:I6"/>
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G14:H15"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:I8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6041,66 +6041,66 @@
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="125" t="s">
+      <c r="C8" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="133" t="s">
+      <c r="D8" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="137" t="s">
+      <c r="E8" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="F8" s="126" t="s">
+      <c r="F8" s="67" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="127"/>
+      <c r="B9" s="142"/>
       <c r="C9" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="134" t="s">
+      <c r="D9" s="74" t="s">
         <v>158</v>
       </c>
-      <c r="E9" s="138"/>
+      <c r="E9" s="78"/>
       <c r="F9" s="64"/>
     </row>
     <row r="10" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B10" s="118"/>
-      <c r="C10" s="128" t="s">
+      <c r="B10" s="96"/>
+      <c r="C10" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="135" t="s">
+      <c r="D10" s="75" t="s">
         <v>157</v>
       </c>
-      <c r="E10" s="139"/>
-      <c r="F10" s="129"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="69"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="110" t="s">
+      <c r="B11" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="125" t="s">
+      <c r="C11" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="D11" s="133" t="s">
+      <c r="D11" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="E11" s="137" t="s">
+      <c r="E11" s="77" t="s">
         <v>161</v>
       </c>
-      <c r="F11" s="126" t="s">
+      <c r="F11" s="67" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="127"/>
+      <c r="B12" s="142"/>
       <c r="C12" s="63"/>
-      <c r="D12" s="134"/>
-      <c r="E12" s="138" t="s">
+      <c r="D12" s="74"/>
+      <c r="E12" s="78" t="s">
         <v>165</v>
       </c>
       <c r="F12" s="64" t="s">
@@ -6108,131 +6108,131 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B13" s="118"/>
-      <c r="C13" s="128"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="139" t="s">
+      <c r="B13" s="96"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="79" t="s">
         <v>144</v>
       </c>
-      <c r="F13" s="129" t="s">
+      <c r="F13" s="69" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B14" s="130" t="s">
+      <c r="B14" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="131" t="s">
+      <c r="C14" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="D14" s="136" t="s">
+      <c r="D14" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="E14" s="140" t="s">
+      <c r="E14" s="80" t="s">
         <v>145</v>
       </c>
-      <c r="F14" s="132" t="s">
+      <c r="F14" s="72" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="110" t="s">
+      <c r="B15" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="125" t="s">
+      <c r="C15" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="133" t="s">
+      <c r="D15" s="73" t="s">
         <v>130</v>
       </c>
-      <c r="E15" s="137" t="s">
+      <c r="E15" s="77" t="s">
         <v>153</v>
       </c>
-      <c r="F15" s="126" t="s">
+      <c r="F15" s="67" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="127"/>
+      <c r="B16" s="142"/>
       <c r="C16" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="134" t="s">
+      <c r="D16" s="74" t="s">
         <v>159</v>
       </c>
-      <c r="E16" s="138"/>
+      <c r="E16" s="78"/>
       <c r="F16" s="64"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="127"/>
+      <c r="B17" s="142"/>
       <c r="C17" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="D17" s="134" t="s">
+      <c r="D17" s="74" t="s">
         <v>160</v>
       </c>
-      <c r="E17" s="141"/>
+      <c r="E17" s="81"/>
       <c r="F17" s="64"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="127"/>
+      <c r="B18" s="142"/>
       <c r="C18" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="D18" s="134" t="s">
+      <c r="D18" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="E18" s="141"/>
+      <c r="E18" s="81"/>
       <c r="F18" s="64"/>
     </row>
     <row r="19" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B19" s="118"/>
-      <c r="C19" s="128" t="s">
+      <c r="B19" s="96"/>
+      <c r="C19" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="D19" s="135" t="s">
+      <c r="D19" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="E19" s="139" t="s">
+      <c r="E19" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="F19" s="129" t="s">
+      <c r="F19" s="69" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="110" t="s">
+      <c r="B20" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="125" t="s">
+      <c r="C20" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="D20" s="133" t="s">
+      <c r="D20" s="73" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="142"/>
-      <c r="F20" s="126"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="67"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="127"/>
+      <c r="B21" s="142"/>
       <c r="C21" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="D21" s="134" t="s">
+      <c r="D21" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="E21" s="141"/>
+      <c r="E21" s="81"/>
       <c r="F21" s="64"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="127"/>
+      <c r="B22" s="142"/>
       <c r="C22" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="134" t="s">
+      <c r="D22" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="138" t="s">
+      <c r="E22" s="78" t="s">
         <v>148</v>
       </c>
       <c r="F22" s="64" t="s">
@@ -6240,65 +6240,65 @@
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="127"/>
+      <c r="B23" s="142"/>
       <c r="C23" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="D23" s="134" t="s">
+      <c r="D23" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="E23" s="141"/>
+      <c r="E23" s="81"/>
       <c r="F23" s="64"/>
     </row>
     <row r="24" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B24" s="118"/>
-      <c r="C24" s="128" t="s">
+      <c r="B24" s="96"/>
+      <c r="C24" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="D24" s="135" t="s">
+      <c r="D24" s="75" t="s">
         <v>126</v>
       </c>
-      <c r="E24" s="143"/>
-      <c r="F24" s="129"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="69"/>
     </row>
     <row r="25" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B25" s="130" t="s">
+      <c r="B25" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="131" t="s">
+      <c r="C25" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="136" t="s">
+      <c r="D25" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="E25" s="142"/>
-      <c r="F25" s="126"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="67"/>
     </row>
     <row r="26" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B26" s="130" t="s">
+      <c r="B26" s="70" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="131" t="s">
+      <c r="C26" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="D26" s="136" t="s">
+      <c r="D26" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="E26" s="141"/>
+      <c r="E26" s="81"/>
       <c r="F26" s="64"/>
     </row>
     <row r="27" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B27" s="130" t="s">
+      <c r="B27" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="131" t="s">
+      <c r="C27" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="D27" s="136" t="s">
+      <c r="D27" s="76" t="s">
         <v>133</v>
       </c>
-      <c r="E27" s="143"/>
-      <c r="F27" s="129"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="69"/>
     </row>
     <row r="30" spans="2:6" ht="17.25">
       <c r="C30" s="9" t="s">
@@ -6317,7 +6317,7 @@
       <c r="D32" s="59"/>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="124" t="s">
+      <c r="B33" s="143" t="s">
         <v>175</v>
       </c>
       <c r="C33" s="63" t="s">
@@ -6328,7 +6328,7 @@
       </c>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="124"/>
+      <c r="B34" s="143"/>
       <c r="C34" s="8" t="s">
         <v>180</v>
       </c>
@@ -6337,7 +6337,7 @@
       </c>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="124"/>
+      <c r="B35" s="143"/>
       <c r="C35" s="8" t="s">
         <v>181</v>
       </c>
@@ -6518,8 +6518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F850116-FD72-48E4-846A-940F8960C3BD}">
   <dimension ref="B1:B8"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35:K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/챕터11 컬렉션.xlsx
+++ b/챕터11 컬렉션.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeongseok\Desktop\새 폴더\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeongseok\Desktop\--main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E6B825-35B8-4374-969E-5115706A0155}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6638CD6A-07DB-4A93-B935-3B158C3F3BE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3975" yWindow="3540" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="컬렉션" sheetId="2" r:id="rId1"/>
@@ -18,10 +18,11 @@
     <sheet name="메소드 정리" sheetId="7" r:id="rId3"/>
     <sheet name="Iterator" sheetId="4" r:id="rId4"/>
     <sheet name="정렬기준" sheetId="6" r:id="rId5"/>
-    <sheet name="Arrays" sheetId="5" r:id="rId6"/>
+    <sheet name="정렬기준2" sheetId="8" r:id="rId6"/>
+    <sheet name="Arrays" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">Arrays!$B$1:$C$71</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">Arrays!$B$1:$C$73</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Iterator!$B$1:$B$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'메소드 정리'!$B$1:$F$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'스텍과 큐'!$B$1:$B$18</definedName>
@@ -2322,7 +2323,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="215">
   <si>
     <t>&lt;컬레션 프레임웍의 핵심 인터페이스 3가지&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2410,30 +2411,6 @@
   </si>
   <si>
     <t>접근시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저장공간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>객체 배열</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 처리유형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>크기를 변경 X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배열기반(순차적)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연결기반(비순차적)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2648,79 +2625,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>컬렉션에 저장된 데이터를 읽는데 사용되는 인터페이스</t>
-  </si>
-  <si>
-    <t>*ListIterator은 양방향</t>
-  </si>
-  <si>
-    <t>*Enumeration은 올드버전</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iterator </t>
-  </si>
-  <si>
     <t>인터페이스 종류: Iterator, ListIterator , Enumeration (참고)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;Iterator 언터페이스의 메서드 대표2가지&gt;</t>
-  </si>
-  <si>
-    <r>
-      <t>boolean</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> hasNext( )</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : 읽어 올 요소가 남았는지 확인 (확인)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Object </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>next( )</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : 다음 요소를 읽어온다. (읽기)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>*iterator은 일회용이라 다 사용했으면 다시 메서드호출하여 새로 얻어야 한다.</t>
@@ -3230,34 +3139,6 @@
   </si>
   <si>
     <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Map에는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> iterator( )가 없음 -&gt; keySet( ),entrySet( ),values( )를 사용-&gt;Set을 얻고-&gt;iterator( )사용</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>entrySet() -&gt; (Map.Entry)</t>
     </r>
     <r>
@@ -3383,12 +3264,514 @@
     <t>비교방법(중복 체크)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>크기증가 하나씩 X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iterator (반복자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>boolean</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> hasNext( )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> : 읽어 올 요소가 남았는지 확인 (확인)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Map에는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> iterator( )가 없음 -&gt; keySet( ),entrySet( ),values( )를 사용-&gt;Set을 얻고-&gt;iterator( )사용</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">자료구조 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인스턴스를 저장하고 관리하는 방법을 정해 둔 것 / 자료구조별 특성과 사용방법이 다르다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬렉션 프레임워크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료구조 및 알고리즘을 구현해 놓은 일종의 라이브러리 중 하나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순차적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비순차적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배열 기반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스트(연결) 기반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 처리방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬렉션에 저장된 데이터를 순차적으로 읽는데 사용되는 인터페이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료구조별 순차적 접근 방법이 모두 다름
+반복자를 사용하면 모든 자료구조에서 같은 방법으로 순차적 접근을 할 수 있다.
+Iterable&lt;E&gt; 인터페이스를 구현 클레스만 사용 가능
+컬레션인터페이스는 Iterable&lt;E&gt; 구현함 / map은 미구현X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*ListIterator은 양방향 *Enumeration은 올드버전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Object </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>next( )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> : 다음 요소를 읽어온다. (읽기)          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> *void remove( ): next( )가 부른 요소를 삭제(if와 함께 사용)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본형과 String은 오름차순의 기준이 정해져 있어서 생략가능하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러나 객체형은 오름차순 순서상 크고작음에 대한 기준이 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즉 Comparable를 구현한 객체들은 오름차순 기준을 제공해야된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오름차순 기준 제공 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(a&gt;b) a-b = 양의 정수 반환</t>
+  </si>
+  <si>
+    <t>(a&gt;b) a-b = 음의 정수 반환</t>
+  </si>
+  <si>
+    <t>(a=b) a-b = 0</t>
+  </si>
+  <si>
+    <t>interface Comparable&lt;T&gt;을 구현한 클레스들은 오름차순으로 정렬된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">사용자 설정 정렬 기준 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미 CompareTo가 이미 정의되어 있는데 정렬기준을 변경하고 싶을 때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class PersonComparator implements </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Comparator&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Person</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {
+public int </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>compare</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Person </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Person </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">{
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p2.age - p1.age;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p1이 p2보다 크면 양의 정수 반환</t>
+  </si>
+  <si>
+    <t>p1이 p2보다 작으면 음의 정수 반환</t>
+  </si>
+  <si>
+    <t>p1과 p2가 같다면 0 반환</t>
+  </si>
+  <si>
+    <t>*p1(앞요소)과 p2(뒷요소)의 순서를 내림차순으로 바꿈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예) a.compareTo(b);    -&gt; 빼기라고 생각        *상황에 맞게 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오름차순 정렬 기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> int </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>compareTo(T o)메서드 오버라이딩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>을 해서 제공</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class Person implements </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Comparable&lt;Person&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {
+  String name;
+  int age;
+  @override
+  public int </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>compareTo(Person p)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    return </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>this.age - p.age;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  }
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3455,13 +3838,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="13"/>
       <color rgb="FFF3C000"/>
       <name val="Noto Sans Demilight"/>
@@ -3515,6 +3891,53 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="나눔스퀘어_ac"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="나눔스퀘어_ac"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="나눔스퀘어_ac"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="나눔스퀘어_ac"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -3542,7 +3965,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="65">
+  <borders count="66">
     <border>
       <left/>
       <right/>
@@ -4392,12 +4815,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4410,141 +4848,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4574,185 +4894,328 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="51" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4955,8 +5418,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>6600825</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>96555</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>172755</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5134,22 +5597,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>98425</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>16683</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>7422</xdr:rowOff>
+      <xdr:colOff>19854</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>121752</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="그림 5">
+        <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{337AEEA0-9E7E-4B9A-9C3F-2A0B8A6BFCF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2F5888F-A145-4378-BC5E-300FCF94D646}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5165,8 +5628,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="749300" y="7162800"/>
-          <a:ext cx="5792008" cy="7560747"/>
+          <a:off x="781050" y="7146925"/>
+          <a:ext cx="5763429" cy="7897327"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5176,6 +5639,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5443,8 +5910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1317E86C-1964-4B9D-8367-08ACA169F896}">
   <dimension ref="B1:I27"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="C1" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5461,379 +5928,410 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9">
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="110" t="s">
+      <c r="C1" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+    </row>
+    <row r="2" spans="2:9">
+      <c r="B2" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="150" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="150" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
     </row>
     <row r="5" spans="2:9" ht="17.25" thickBot="1"/>
     <row r="6" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="86"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="50"/>
     </row>
     <row r="7" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54"/>
+    </row>
+    <row r="8" spans="2:9" ht="17.25" thickBot="1">
+      <c r="B8" s="55"/>
+      <c r="C8" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="57"/>
+      <c r="E8" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="58"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="61"/>
+    </row>
+    <row r="9" spans="2:9" ht="17.25" thickBot="1">
+      <c r="B9" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="65" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="68"/>
+      <c r="E10" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="54"/>
+      <c r="G10" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="70"/>
+      <c r="I10" s="71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="17.25" thickBot="1">
+      <c r="B11" s="55"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="76"/>
+      <c r="I11" s="77"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="82"/>
+      <c r="I12" s="80" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" s="10" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B13" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="85" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="84" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="87" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="88"/>
-      <c r="I7" s="89"/>
-    </row>
-    <row r="8" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B8" s="112"/>
-      <c r="C8" s="93" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="94"/>
-      <c r="E8" s="93" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="95"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="92"/>
-    </row>
-    <row r="9" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B9" s="24" t="s">
+      <c r="F13" s="85" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="87"/>
+      <c r="I13" s="85" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" s="10" customFormat="1" ht="17.25" thickBot="1">
+      <c r="B14" s="88" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="89" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" s="90"/>
+      <c r="E14" s="91" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" s="92"/>
+      <c r="G14" s="93" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="94"/>
+      <c r="I14" s="90" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" s="10" customFormat="1" ht="30.75" thickTop="1">
+      <c r="B15" s="95"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="98" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="99" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" s="100"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="102"/>
+    </row>
+    <row r="16" spans="2:9" s="10" customFormat="1">
+      <c r="B16" s="95"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="105" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="106"/>
+      <c r="I16" s="104" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" s="10" customFormat="1">
+      <c r="B17" s="95"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="107" t="s">
+        <v>158</v>
+      </c>
+      <c r="F17" s="108" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="105" t="s">
+        <v>159</v>
+      </c>
+      <c r="H17" s="109"/>
+      <c r="I17" s="110"/>
+    </row>
+    <row r="18" spans="2:9" ht="17.25" thickBot="1">
+      <c r="B18" s="111" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="112" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="113"/>
+      <c r="E18" s="114" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="115"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="115"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="117" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" s="118" t="s">
+        <v>189</v>
+      </c>
+      <c r="D19" s="119" t="s">
+        <v>190</v>
+      </c>
+      <c r="E19" s="118" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="119" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="120" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="121"/>
+      <c r="I19" s="119" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="122" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" s="123" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" s="124" t="s">
+        <v>188</v>
+      </c>
+      <c r="E20" s="123"/>
+      <c r="F20" s="124"/>
+      <c r="G20" s="125"/>
+      <c r="H20" s="126"/>
+      <c r="I20" s="124"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="122" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="127" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="128" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="123"/>
+      <c r="F21" s="124"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="126"/>
+      <c r="I21" s="124"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="122" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="123" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="124" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="123"/>
+      <c r="F22" s="124"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="124"/>
+    </row>
+    <row r="23" spans="2:9" ht="17.25" thickBot="1">
+      <c r="B23" s="129" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="111" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="98"/>
-      <c r="E10" s="87" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="89"/>
-      <c r="G10" s="100" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="101"/>
-      <c r="I10" s="27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B11" s="112"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="120" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="119"/>
-      <c r="I11" s="121"/>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="122" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="123"/>
-      <c r="I12" s="30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" s="34" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B13" s="31" t="s">
+      <c r="C23" s="130" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="131" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="132"/>
+      <c r="F23" s="133"/>
+      <c r="G23" s="134"/>
+      <c r="H23" s="135"/>
+      <c r="I23" s="133"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="115" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="116"/>
-      <c r="I13" s="33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" s="34" customFormat="1" ht="17.25" thickBot="1">
-      <c r="B14" s="124" t="s">
+      <c r="D24" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="137"/>
+      <c r="F24" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" s="138"/>
+      <c r="I24" s="71"/>
+    </row>
+    <row r="25" spans="2:9" ht="17.25" thickBot="1">
+      <c r="B25" s="139"/>
+      <c r="C25" s="140"/>
+      <c r="D25" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="126" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="128"/>
-      <c r="E14" s="140" t="s">
-        <v>190</v>
-      </c>
-      <c r="F14" s="141"/>
-      <c r="G14" s="131" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" s="132"/>
-      <c r="I14" s="128" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" s="34" customFormat="1" ht="33.75" thickTop="1">
-      <c r="B15" s="125"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="58" t="s">
-        <v>173</v>
-      </c>
-      <c r="G15" s="133"/>
-      <c r="H15" s="134"/>
-      <c r="I15" s="138"/>
-    </row>
-    <row r="16" spans="2:9" s="34" customFormat="1">
-      <c r="B16" s="125"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="135" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="139"/>
-      <c r="I16" s="48" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" s="34" customFormat="1">
-      <c r="B17" s="125"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="50" t="s">
-        <v>171</v>
-      </c>
-      <c r="F17" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="135" t="s">
-        <v>172</v>
-      </c>
-      <c r="H17" s="136"/>
-      <c r="I17" s="137"/>
-    </row>
-    <row r="18" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B18" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="108" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="109"/>
-      <c r="E18" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" s="57"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="130"/>
-      <c r="I18" s="57"/>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="113" t="s">
-        <v>94</v>
-      </c>
-      <c r="H19" s="114"/>
-      <c r="I19" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="105"/>
-      <c r="I20" s="16"/>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="105"/>
-      <c r="I21" s="16"/>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="16"/>
-    </row>
-    <row r="23" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B23" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="103"/>
-      <c r="I23" s="39"/>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="106" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="G24" s="93" t="s">
-        <v>88</v>
-      </c>
-      <c r="H24" s="117"/>
-      <c r="I24" s="27"/>
-    </row>
-    <row r="25" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B25" s="107"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="118"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="20"/>
+      <c r="E25" s="140"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="143"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
     </row>
     <row r="27" spans="2:9">
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="34">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C1:H1"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="C14:C17"/>
     <mergeCell ref="D14:D17"/>
@@ -5847,7 +6345,6 @@
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
@@ -5889,22 +6386,22 @@
   <sheetData>
     <row r="2" spans="2:2" ht="17.25" thickBot="1">
       <c r="B2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="17.25" thickBot="1">
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="258.75" customHeight="1" thickBot="1">
@@ -5912,38 +6409,38 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="17.25" thickBot="1">
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="17.25" thickBot="1"/>
     <row r="11" spans="2:2">
       <c r="B11" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="2:2" ht="17.25" thickBot="1">
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="2:2" ht="254.25" customHeight="1" thickBot="1">
@@ -5951,12 +6448,12 @@
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="17.25" thickBot="1">
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -5978,7 +6475,7 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="9" style="45"/>
+    <col min="2" max="2" width="9" style="15"/>
     <col min="3" max="3" width="35.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="61.625" customWidth="1"/>
     <col min="5" max="5" width="38.5" bestFit="1" customWidth="1"/>
@@ -5986,372 +6483,372 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="17.25">
-      <c r="C1" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" s="52" t="s">
-        <v>139</v>
+      <c r="C1" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="2:6" ht="19.5">
-      <c r="C2" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" s="54" t="s">
-        <v>101</v>
+      <c r="C2" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="17.25">
       <c r="C3" s="9" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F3" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="C4" s="9" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="C5" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="53" t="s">
-        <v>185</v>
+        <v>88</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="2:6" ht="20.25" thickBot="1">
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="46"/>
+      <c r="C9" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="38"/>
+      <c r="F9" s="24"/>
+    </row>
+    <row r="10" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B10" s="45"/>
+      <c r="C10" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="39"/>
+      <c r="F10" s="29"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="46"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B13" s="45"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B14" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="46"/>
+      <c r="C16" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" s="38"/>
+      <c r="F16" s="24"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="46"/>
+      <c r="C17" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="E17" s="41"/>
+      <c r="F17" s="24"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="46"/>
+      <c r="C18" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="41"/>
+      <c r="F18" s="24"/>
+    </row>
+    <row r="19" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B19" s="45"/>
+      <c r="C19" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="87" t="s">
+      <c r="E19" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="42"/>
+      <c r="F20" s="27"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="46"/>
+      <c r="C21" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="73" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" s="77" t="s">
-        <v>142</v>
-      </c>
-      <c r="F8" s="67" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="142"/>
-      <c r="C9" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="74" t="s">
-        <v>158</v>
-      </c>
-      <c r="E9" s="78"/>
-      <c r="F9" s="64"/>
-    </row>
-    <row r="10" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B10" s="96"/>
-      <c r="C10" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="75" t="s">
-        <v>157</v>
-      </c>
-      <c r="E10" s="79"/>
-      <c r="F10" s="69"/>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="87" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="66" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="73" t="s">
-        <v>105</v>
-      </c>
-      <c r="E11" s="77" t="s">
+      <c r="D21" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="41"/>
+      <c r="F21" s="24"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="46"/>
+      <c r="C22" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="46"/>
+      <c r="C23" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="41"/>
+      <c r="F23" s="24"/>
+    </row>
+    <row r="24" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B24" s="45"/>
+      <c r="C24" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="43"/>
+      <c r="F24" s="29"/>
+    </row>
+    <row r="25" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B25" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="F11" s="67" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="142"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="78" t="s">
-        <v>165</v>
-      </c>
-      <c r="F12" s="64" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B13" s="96"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="79" t="s">
+      <c r="E25" s="42"/>
+      <c r="F25" s="27"/>
+    </row>
+    <row r="26" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B26" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="F13" s="69" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B14" s="70" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="D14" s="76" t="s">
-        <v>112</v>
-      </c>
-      <c r="E14" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="F14" s="72" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="87" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="66" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" s="73" t="s">
-        <v>130</v>
-      </c>
-      <c r="E15" s="77" t="s">
-        <v>153</v>
-      </c>
-      <c r="F15" s="67" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="142"/>
-      <c r="C16" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" s="74" t="s">
-        <v>159</v>
-      </c>
-      <c r="E16" s="78"/>
-      <c r="F16" s="64"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="142"/>
-      <c r="C17" s="63" t="s">
-        <v>136</v>
-      </c>
-      <c r="D17" s="74" t="s">
-        <v>160</v>
-      </c>
-      <c r="E17" s="81"/>
-      <c r="F17" s="64"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="142"/>
-      <c r="C18" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="D18" s="74" t="s">
-        <v>128</v>
-      </c>
-      <c r="E18" s="81"/>
-      <c r="F18" s="64"/>
-    </row>
-    <row r="19" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B19" s="96"/>
-      <c r="C19" s="68" t="s">
-        <v>150</v>
-      </c>
-      <c r="D19" s="75" t="s">
-        <v>114</v>
-      </c>
-      <c r="E19" s="79" t="s">
-        <v>150</v>
-      </c>
-      <c r="F19" s="69" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="87" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="66" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20" s="73" t="s">
-        <v>118</v>
-      </c>
-      <c r="E20" s="82"/>
-      <c r="F20" s="67"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="142"/>
-      <c r="C21" s="63" t="s">
+      <c r="E26" s="41"/>
+      <c r="F26" s="24"/>
+    </row>
+    <row r="27" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B27" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="D21" s="74" t="s">
+      <c r="C27" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="E21" s="81"/>
-      <c r="F21" s="64"/>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="142"/>
-      <c r="C22" s="63" t="s">
+      <c r="D27" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="74" t="s">
-        <v>122</v>
-      </c>
-      <c r="E22" s="78" t="s">
-        <v>148</v>
-      </c>
-      <c r="F22" s="64" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="142"/>
-      <c r="C23" s="63" t="s">
-        <v>134</v>
-      </c>
-      <c r="D23" s="74" t="s">
-        <v>135</v>
-      </c>
-      <c r="E23" s="81"/>
-      <c r="F23" s="64"/>
-    </row>
-    <row r="24" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B24" s="96"/>
-      <c r="C24" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="D24" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="E24" s="83"/>
-      <c r="F24" s="69"/>
-    </row>
-    <row r="25" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B25" s="70" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25" s="76" t="s">
-        <v>174</v>
-      </c>
-      <c r="E25" s="82"/>
-      <c r="F25" s="67"/>
-    </row>
-    <row r="26" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B26" s="70" t="s">
-        <v>137</v>
-      </c>
-      <c r="C26" s="71" t="s">
-        <v>129</v>
-      </c>
-      <c r="D26" s="76" t="s">
-        <v>156</v>
-      </c>
-      <c r="E26" s="81"/>
-      <c r="F26" s="64"/>
-    </row>
-    <row r="27" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B27" s="70" t="s">
-        <v>131</v>
-      </c>
-      <c r="C27" s="71" t="s">
-        <v>132</v>
-      </c>
-      <c r="D27" s="76" t="s">
-        <v>133</v>
-      </c>
-      <c r="E27" s="83"/>
-      <c r="F27" s="69"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="30" spans="2:6" ht="17.25">
       <c r="C30" s="9" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="17.25" thickBot="1"/>
     <row r="32" spans="2:6">
-      <c r="B32" s="44"/>
-      <c r="C32" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="D32" s="59"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D32" s="19"/>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="143" t="s">
-        <v>175</v>
-      </c>
-      <c r="C33" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="D33" s="64" t="s">
-        <v>176</v>
+      <c r="B33" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="143"/>
+      <c r="B34" s="47"/>
       <c r="C34" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D34" s="64" t="s">
-        <v>182</v>
+        <v>167</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="143"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D35" s="64" t="s">
-        <v>183</v>
+        <v>168</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="17.25" thickBot="1">
-      <c r="B36" s="60"/>
-      <c r="C36" s="61" t="s">
-        <v>177</v>
-      </c>
-      <c r="D36" s="62" t="s">
-        <v>184</v>
+      <c r="B36" s="20"/>
+      <c r="C36" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -6379,97 +6876,99 @@
   <dimension ref="B1:B19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="87.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="144"/>
+    <col min="2" max="2" width="87.375" style="144" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="144"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="17.25" thickBot="1"/>
+    <row r="1" spans="2:2" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:2">
-      <c r="B2" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" ht="17.25" thickBot="1">
-      <c r="B3" s="43" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" ht="17.25" thickBot="1">
-      <c r="B6" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" ht="17.25" thickBot="1"/>
+      <c r="B2" s="145" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B3" s="146" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="60.75" thickBot="1">
+      <c r="B4" s="151" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" hidden="1">
+      <c r="B5" s="147" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="15.75" hidden="1" thickBot="1">
+      <c r="B6" s="146" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="15.75" thickBot="1"/>
     <row r="8" spans="2:2">
-      <c r="B8" s="2" t="s">
-        <v>77</v>
+      <c r="B8" s="145" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" ht="17.25" thickBot="1">
-      <c r="B10" s="1" t="s">
-        <v>79</v>
+      <c r="B9" s="148" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B10" s="146" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="6" t="s">
-        <v>166</v>
+      <c r="B11" s="149" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="2:2" ht="204" customHeight="1" thickBot="1">
-      <c r="B12" s="1"/>
+      <c r="B12" s="146"/>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" ht="17.25" thickBot="1">
-      <c r="B15" s="3" t="s">
-        <v>164</v>
+      <c r="B13" s="147" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B14" s="148" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B15" s="152" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="17.25" thickBot="1">
-      <c r="B17" s="1" t="s">
-        <v>168</v>
+      <c r="B16" s="147" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B17" s="146" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" ht="17.25" thickBot="1">
-      <c r="B19" s="1" t="s">
-        <v>170</v>
+      <c r="B18" s="147" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="15.75" thickBot="1">
+      <c r="B19" s="146" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -6482,28 +6981,28 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB31FB4-7E0A-4F57-92F2-FFAE6F9E283C}">
-  <dimension ref="J7:K8"/>
+  <dimension ref="J5:K7"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
+    <row r="5" spans="10:11">
+      <c r="J5" t="s">
+        <v>173</v>
+      </c>
+      <c r="K5" t="s">
+        <v>175</v>
+      </c>
+    </row>
     <row r="7" spans="10:11">
       <c r="J7" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="K7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="10:11">
-      <c r="J8" t="s">
-        <v>187</v>
-      </c>
-      <c r="K8" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -6515,11 +7014,127 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA67F97A-2057-41DC-A89C-1B044D8B2401}">
+  <dimension ref="B1:B22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="69.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:2">
+      <c r="B2" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B6" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="153" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="154" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="132">
+      <c r="B9" s="157" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="155" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="154" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B16" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="17.25" thickBot="1"/>
+    <row r="19" spans="2:2">
+      <c r="B19" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="156" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="66">
+      <c r="B21" s="158" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B22" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F850116-FD72-48E4-846A-940F8960C3BD}">
   <dimension ref="B1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35:K35"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6530,32 +7145,32 @@
     <row r="1" spans="2:2" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="3" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="17.25" thickBot="1">
       <c r="B4" s="1" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="17.25" thickBot="1"/>
     <row r="6" spans="2:2">
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="17.25" thickBot="1">
-      <c r="B7" s="42" t="s">
-        <v>86</v>
+      <c r="B7" s="13" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="41"/>
+      <c r="B8" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/챕터11 컬렉션.xlsx
+++ b/챕터11 컬렉션.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeongseok\Desktop\--main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeongseok\Desktop\--main\--main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6638CD6A-07DB-4A93-B935-3B158C3F3BE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38F29CF-8A5F-43E0-A906-0B19CE063E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3975" yWindow="3540" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="컬렉션" sheetId="2" r:id="rId1"/>
@@ -4894,301 +4894,118 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="51" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5200,9 +5017,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -5216,6 +5030,192 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="51" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5641,10 +5641,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5931,393 +5927,393 @@
       <c r="B1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="150" t="s">
+      <c r="C1" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
     </row>
     <row r="2" spans="2:9">
       <c r="B2" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="150" t="s">
+      <c r="C2" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="C3" s="150" t="s">
+      <c r="C3" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
     </row>
     <row r="5" spans="2:9" ht="17.25" thickBot="1"/>
     <row r="6" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="50"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="136"/>
     </row>
     <row r="7" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="54"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="143"/>
     </row>
     <row r="8" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B8" s="55"/>
-      <c r="C8" s="56" t="s">
+      <c r="B8" s="125"/>
+      <c r="C8" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="56" t="s">
+      <c r="D8" s="147"/>
+      <c r="E8" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="58"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="61"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="144"/>
+      <c r="H8" s="145"/>
+      <c r="I8" s="146"/>
     </row>
     <row r="9" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="63" t="s">
+      <c r="E9" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="65" t="s">
+      <c r="F9" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="66" t="s">
+      <c r="G9" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="67" t="s">
+      <c r="H9" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="65" t="s">
+      <c r="I9" s="47" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="124" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="68"/>
-      <c r="E10" s="52" t="s">
+      <c r="D10" s="151"/>
+      <c r="E10" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="54"/>
-      <c r="G10" s="69" t="s">
+      <c r="F10" s="143"/>
+      <c r="G10" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="70"/>
-      <c r="I10" s="71" t="s">
+      <c r="H10" s="154"/>
+      <c r="I10" s="50" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B11" s="55"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="75" t="s">
+      <c r="B11" s="125"/>
+      <c r="C11" s="149"/>
+      <c r="D11" s="152"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="76"/>
-      <c r="I11" s="77"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="138"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="79" t="s">
+      <c r="C12" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="80" t="s">
+      <c r="D12" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="79" t="s">
+      <c r="E12" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="80" t="s">
+      <c r="F12" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="81" t="s">
+      <c r="G12" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="82"/>
-      <c r="I12" s="80" t="s">
+      <c r="H12" s="140"/>
+      <c r="I12" s="53" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:9" s="10" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B13" s="83" t="s">
+      <c r="B13" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="84" t="s">
+      <c r="C13" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="85" t="s">
+      <c r="D13" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="84" t="s">
+      <c r="E13" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="85" t="s">
+      <c r="F13" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="86" t="s">
+      <c r="G13" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="87"/>
-      <c r="I13" s="85" t="s">
+      <c r="H13" s="129"/>
+      <c r="I13" s="56" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="14" spans="2:9" s="10" customFormat="1" ht="17.25" thickBot="1">
-      <c r="B14" s="88" t="s">
+      <c r="B14" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="89" t="s">
+      <c r="C14" s="100" t="s">
         <v>178</v>
       </c>
-      <c r="D14" s="90"/>
-      <c r="E14" s="91" t="s">
+      <c r="D14" s="102"/>
+      <c r="E14" s="115" t="s">
         <v>177</v>
       </c>
-      <c r="F14" s="92"/>
-      <c r="G14" s="93" t="s">
+      <c r="F14" s="116"/>
+      <c r="G14" s="106" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="94"/>
-      <c r="I14" s="90" t="s">
+      <c r="H14" s="107"/>
+      <c r="I14" s="102" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="15" spans="2:9" s="10" customFormat="1" ht="30.75" thickTop="1">
-      <c r="B15" s="95"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="98" t="s">
+      <c r="B15" s="99"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="99" t="s">
+      <c r="F15" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="G15" s="100"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="102"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="113"/>
     </row>
     <row r="16" spans="2:9" s="10" customFormat="1">
-      <c r="B16" s="95"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="103" t="s">
+      <c r="B16" s="99"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="104" t="s">
+      <c r="F16" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="105" t="s">
+      <c r="G16" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="106"/>
-      <c r="I16" s="104" t="s">
+      <c r="H16" s="114"/>
+      <c r="I16" s="60" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="17" spans="2:9" s="10" customFormat="1">
-      <c r="B17" s="95"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="107" t="s">
+      <c r="B17" s="99"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="61" t="s">
         <v>158</v>
       </c>
-      <c r="F17" s="108" t="s">
+      <c r="F17" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="G17" s="105" t="s">
+      <c r="G17" s="110" t="s">
         <v>159</v>
       </c>
-      <c r="H17" s="109"/>
-      <c r="I17" s="110"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="112"/>
     </row>
     <row r="18" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B18" s="111" t="s">
+      <c r="B18" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="112" t="s">
+      <c r="C18" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="113"/>
-      <c r="E18" s="114" t="s">
+      <c r="D18" s="123"/>
+      <c r="E18" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="115"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="115"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="65"/>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="117" t="s">
+      <c r="B19" s="66" t="s">
         <v>186</v>
       </c>
-      <c r="C19" s="118" t="s">
+      <c r="C19" s="67" t="s">
         <v>189</v>
       </c>
-      <c r="D19" s="119" t="s">
+      <c r="D19" s="68" t="s">
         <v>190</v>
       </c>
-      <c r="E19" s="118" t="s">
+      <c r="E19" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="119" t="s">
+      <c r="F19" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="120" t="s">
+      <c r="G19" s="126" t="s">
         <v>82</v>
       </c>
-      <c r="H19" s="121"/>
-      <c r="I19" s="119" t="s">
+      <c r="H19" s="127"/>
+      <c r="I19" s="68" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="122" t="s">
+      <c r="B20" s="69" t="s">
         <v>191</v>
       </c>
-      <c r="C20" s="123" t="s">
+      <c r="C20" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="D20" s="124" t="s">
+      <c r="D20" s="71" t="s">
         <v>188</v>
       </c>
-      <c r="E20" s="123"/>
-      <c r="F20" s="124"/>
-      <c r="G20" s="125"/>
-      <c r="H20" s="126"/>
-      <c r="I20" s="124"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="71"/>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="122" t="s">
+      <c r="B21" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="127" t="s">
+      <c r="C21" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="128" t="s">
+      <c r="D21" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="123"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="126"/>
-      <c r="I21" s="124"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="71"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="122" t="s">
+      <c r="B22" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="123" t="s">
+      <c r="C22" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="124" t="s">
+      <c r="D22" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="123"/>
-      <c r="F22" s="124"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="126"/>
-      <c r="I22" s="124"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="120"/>
+      <c r="I22" s="71"/>
     </row>
     <row r="23" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B23" s="129" t="s">
+      <c r="B23" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="130" t="s">
+      <c r="C23" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="131" t="s">
+      <c r="D23" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="132"/>
-      <c r="F23" s="133"/>
-      <c r="G23" s="134"/>
-      <c r="H23" s="135"/>
-      <c r="I23" s="133"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="78"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="136" t="s">
+      <c r="B24" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="137" t="s">
+      <c r="C24" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="71" t="s">
+      <c r="D24" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="137"/>
-      <c r="F24" s="71" t="s">
+      <c r="E24" s="79"/>
+      <c r="F24" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="G24" s="56" t="s">
+      <c r="G24" s="130" t="s">
         <v>76</v>
       </c>
-      <c r="H24" s="138"/>
-      <c r="I24" s="71"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="50"/>
     </row>
     <row r="25" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B25" s="139"/>
-      <c r="C25" s="140"/>
-      <c r="D25" s="141" t="s">
+      <c r="B25" s="122"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="140"/>
-      <c r="F25" s="141"/>
-      <c r="G25" s="142"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="143"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="132"/>
+      <c r="H25" s="133"/>
+      <c r="I25" s="82"/>
     </row>
     <row r="26" spans="2:9">
       <c r="E26" s="11"/>
@@ -6329,18 +6325,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G14:H15"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E14:F14"/>
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="B24:B25"/>
@@ -6353,11 +6337,23 @@
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B6:I6"/>
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="G7:I8"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B6:I6"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E10:F11"/>
@@ -6469,7 +6465,7 @@
   <dimension ref="B1:F36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6538,7 +6534,7 @@
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="155" t="s">
         <v>95</v>
       </c>
       <c r="C8" s="26" t="s">
@@ -6555,7 +6551,7 @@
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="46"/>
+      <c r="B9" s="156"/>
       <c r="C9" s="23" t="s">
         <v>103</v>
       </c>
@@ -6566,7 +6562,7 @@
       <c r="F9" s="24"/>
     </row>
     <row r="10" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B10" s="45"/>
+      <c r="B10" s="157"/>
       <c r="C10" s="28" t="s">
         <v>104</v>
       </c>
@@ -6577,7 +6573,7 @@
       <c r="F10" s="29"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="155" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="26" t="s">
@@ -6594,7 +6590,7 @@
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="46"/>
+      <c r="B12" s="156"/>
       <c r="C12" s="23"/>
       <c r="D12" s="34"/>
       <c r="E12" s="38" t="s">
@@ -6605,7 +6601,7 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B13" s="45"/>
+      <c r="B13" s="157"/>
       <c r="C13" s="28"/>
       <c r="D13" s="35"/>
       <c r="E13" s="39" t="s">
@@ -6633,7 +6629,7 @@
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="155" t="s">
         <v>97</v>
       </c>
       <c r="C15" s="26" t="s">
@@ -6650,7 +6646,7 @@
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="46"/>
+      <c r="B16" s="156"/>
       <c r="C16" s="23" t="s">
         <v>101</v>
       </c>
@@ -6661,7 +6657,7 @@
       <c r="F16" s="24"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="46"/>
+      <c r="B17" s="156"/>
       <c r="C17" s="23" t="s">
         <v>124</v>
       </c>
@@ -6672,7 +6668,7 @@
       <c r="F17" s="24"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="46"/>
+      <c r="B18" s="156"/>
       <c r="C18" s="23" t="s">
         <v>115</v>
       </c>
@@ -6683,7 +6679,7 @@
       <c r="F18" s="24"/>
     </row>
     <row r="19" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B19" s="45"/>
+      <c r="B19" s="157"/>
       <c r="C19" s="28" t="s">
         <v>138</v>
       </c>
@@ -6698,7 +6694,7 @@
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="155" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="26" t="s">
@@ -6711,7 +6707,7 @@
       <c r="F20" s="27"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="46"/>
+      <c r="B21" s="156"/>
       <c r="C21" s="23" t="s">
         <v>107</v>
       </c>
@@ -6722,7 +6718,7 @@
       <c r="F21" s="24"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="46"/>
+      <c r="B22" s="156"/>
       <c r="C22" s="23" t="s">
         <v>109</v>
       </c>
@@ -6737,7 +6733,7 @@
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="46"/>
+      <c r="B23" s="156"/>
       <c r="C23" s="23" t="s">
         <v>122</v>
       </c>
@@ -6748,7 +6744,7 @@
       <c r="F23" s="24"/>
     </row>
     <row r="24" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B24" s="45"/>
+      <c r="B24" s="157"/>
       <c r="C24" s="28" t="s">
         <v>113</v>
       </c>
@@ -6814,7 +6810,7 @@
       <c r="D32" s="19"/>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="47" t="s">
+      <c r="B33" s="158" t="s">
         <v>162</v>
       </c>
       <c r="C33" s="23" t="s">
@@ -6825,7 +6821,7 @@
       </c>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="47"/>
+      <c r="B34" s="158"/>
       <c r="C34" s="8" t="s">
         <v>167</v>
       </c>
@@ -6834,7 +6830,7 @@
       </c>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="47"/>
+      <c r="B35" s="158"/>
       <c r="C35" s="8" t="s">
         <v>168</v>
       </c>
@@ -6876,98 +6872,98 @@
   <dimension ref="B1:B19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9" style="144"/>
-    <col min="2" max="2" width="87.375" style="144" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="144"/>
+    <col min="1" max="1" width="9" style="83"/>
+    <col min="2" max="2" width="87.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="83"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:2">
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="84" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="85" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="60.75" thickBot="1">
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="89" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="5" spans="2:2" hidden="1">
-      <c r="B5" s="147" t="s">
+      <c r="B5" s="86" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="15.75" hidden="1" thickBot="1">
-      <c r="B6" s="146" t="s">
+      <c r="B6" s="85" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="15.75" thickBot="1"/>
     <row r="8" spans="2:2">
-      <c r="B8" s="145" t="s">
+      <c r="B8" s="84" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="148" t="s">
+      <c r="B9" s="87" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B10" s="146" t="s">
+      <c r="B10" s="85" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="149" t="s">
+      <c r="B11" s="88" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="12" spans="2:2" ht="204" customHeight="1" thickBot="1">
-      <c r="B12" s="146"/>
+      <c r="B12" s="85"/>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="147" t="s">
+      <c r="B13" s="86" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="14" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B14" s="148" t="s">
+      <c r="B14" s="87" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="15" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B15" s="152" t="s">
+      <c r="B15" s="90" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="147" t="s">
+      <c r="B16" s="86" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B17" s="146" t="s">
+      <c r="B17" s="85" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="147" t="s">
+      <c r="B18" s="86" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B19" s="146" t="s">
+      <c r="B19" s="85" t="s">
         <v>157</v>
       </c>
     </row>
@@ -7017,8 +7013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA67F97A-2057-41DC-A89C-1B044D8B2401}">
   <dimension ref="B1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7053,22 +7049,22 @@
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="153" t="s">
+      <c r="B7" s="91" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="154" t="s">
+      <c r="B8" s="92" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="132">
-      <c r="B9" s="157" t="s">
+      <c r="B9" s="95" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="155" t="s">
+      <c r="B10" s="93" t="s">
         <v>207</v>
       </c>
     </row>
@@ -7078,7 +7074,7 @@
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="154" t="s">
+      <c r="B12" s="92" t="s">
         <v>209</v>
       </c>
     </row>
@@ -7109,12 +7105,12 @@
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="156" t="s">
+      <c r="B20" s="94" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="66">
-      <c r="B21" s="158" t="s">
+      <c r="B21" s="96" t="s">
         <v>206</v>
       </c>
     </row>
@@ -7133,7 +7129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F850116-FD72-48E4-846A-940F8960C3BD}">
   <dimension ref="B1:B8"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="190" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
